--- a/resource/excel_bar/Gift.xlsx
+++ b/resource/excel_bar/Gift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="15570"/>
+    <workbookView windowWidth="28440" windowHeight="15570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GiftItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Duration</t>
   </si>
   <si>
+    <t>Ext</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>EnumRef:EItemType</t>
+  </si>
+  <si>
+    <t>Default:0</t>
   </si>
   <si>
     <t>Partial:3;CustomEnum:_ItemType</t>
@@ -106,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -148,7 +154,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,107 +252,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,55 +333,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,61 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,49 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +512,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,24 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -595,27 +612,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,137 +630,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -779,6 +785,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,13 +1112,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="18.5666666666667" customWidth="1"/>
     <col min="4" max="4" width="40.1416666666667" customWidth="1"/>
@@ -1114,9 +1126,11 @@
     <col min="6" max="6" width="21.425" customWidth="1"/>
     <col min="7" max="7" width="25.1416666666667" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1141,48 +1155,60 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1191,10 +1217,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7">
         <v>1980</v>
@@ -1203,23 +1231,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:8">
+    <row r="6" ht="15" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7">
         <v>1980</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -1228,12 +1259,12 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8">
         <v>50</v>
@@ -1262,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1273,7 +1304,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1281,7 +1312,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1289,7 +1320,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1297,7 +1328,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1305,7 +1336,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1313,7 +1344,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>16</v>

--- a/resource/excel_bar/Gift.xlsx
+++ b/resource/excel_bar/Gift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="15570" activeTab="1"/>
+    <workbookView windowWidth="28440" windowHeight="15570"/>
   </bookViews>
   <sheets>
     <sheet name="GiftItem" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>1:[i@100]</t>
   </si>
   <si>
-    <t>50人气票</t>
+    <t>人气票50</t>
   </si>
   <si>
     <t>None</t>
@@ -112,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -154,7 +154,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,8 +182,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,85 +237,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,43 +333,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,127 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,22 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,7 +534,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,15 +550,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,21 +570,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -612,16 +583,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1293,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/resource/excel_bar/Gift.xlsx
+++ b/resource/excel_bar/Gift.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bililive_dm\resource\excel_bar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700C2C7-5FBC-4078-8F0C-804B4EF012A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30850" yWindow="5760" windowWidth="27440" windowHeight="13070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="GiftItem" sheetId="1" r:id="rId1"/>
     <sheet name="_ItemType" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -93,6 +74,9 @@
     <t>舰长</t>
   </si>
   <si>
+    <t>情书:3;这个好诶:5;为你打call:3;落樱缤纷:2;少女祈祷:2</t>
+  </si>
+  <si>
     <t>舰长卡</t>
   </si>
   <si>
@@ -102,9 +86,84 @@
     <t>人气票</t>
   </si>
   <si>
+    <t>1:[i@120]</t>
+  </si>
+  <si>
     <t>人气票50</t>
   </si>
   <si>
+    <t>5:[s@人气50Squad]</t>
+  </si>
+  <si>
+    <t>DailySign</t>
+  </si>
+  <si>
+    <t>3:[i@100|i@180]</t>
+  </si>
+  <si>
+    <t>DailyLike</t>
+  </si>
+  <si>
+    <t>1:[s@Get(v1,FansLevel)*2+14]</t>
+  </si>
+  <si>
+    <t>情书</t>
+  </si>
+  <si>
+    <t>2:[i@1003]</t>
+  </si>
+  <si>
+    <t>这个好诶</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>为你打call</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>星河入梦</t>
+  </si>
+  <si>
+    <t>6:8</t>
+  </si>
+  <si>
+    <t>落樱缤纷</t>
+  </si>
+  <si>
+    <t>9:12</t>
+  </si>
+  <si>
+    <t>冲鸭</t>
+  </si>
+  <si>
+    <t>7:5</t>
+  </si>
+  <si>
+    <t>少女祈祷</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>2:[i@1002]</t>
+  </si>
+  <si>
+    <t>小花花</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>辣条</t>
+  </si>
+  <si>
+    <t>1:[i@20]</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -121,37 +180,30 @@
   </si>
   <si>
     <t>LimitedMonth</t>
-  </si>
-  <si>
-    <t>1:[i@120]</t>
-  </si>
-  <si>
-    <t>5:[s@人气50Squad]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,8 +212,152 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,13 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39991454817346722"/>
+        <fgColor theme="3" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,13 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,12 +408,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -219,54 +589,342 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -524,207 +1182,334 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5666666666667" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="27.8583333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.425" customWidth="1"/>
+    <col min="7" max="7" width="25.1416666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.1416666666667" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>1980</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7">
+    </row>
+    <row r="6" ht="15" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
         <v>1980</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" ht="15" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
         <v>50</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
+      <c r="B11" s="2">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>99</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>199</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="14" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2">
+        <v>600</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2">
+        <v>99</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>66</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="15" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -732,7 +1517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -740,7 +1525,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -748,7 +1533,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -756,7 +1541,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -764,7 +1549,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -772,5 +1557,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/excel_bar/Gift.xlsx
+++ b/resource/excel_bar/Gift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>舰长</t>
   </si>
   <si>
-    <t>情书:3;这个好诶:5;为你打call:3;落樱缤纷:2;少女祈祷:2</t>
+    <t>情书:3;这个好诶:5;为你打call:4;落樱缤纷:2;少女祈祷:3</t>
   </si>
   <si>
     <t>舰长卡</t>
@@ -110,6 +110,9 @@
     <t>情书</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>2:[i@1003]</t>
   </si>
   <si>
@@ -128,7 +131,7 @@
     <t>星河入梦</t>
   </si>
   <si>
-    <t>6:8</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>落樱缤纷</t>
@@ -146,7 +149,7 @@
     <t>少女祈祷</t>
   </si>
   <si>
-    <t>2:5</t>
+    <t>2:7</t>
   </si>
   <si>
     <t>2:[i@1002]</t>
@@ -161,7 +164,7 @@
     <t>辣条</t>
   </si>
   <si>
-    <t>1:[i@20]</t>
+    <t>1:[i@30]</t>
   </si>
   <si>
     <t>None</t>
@@ -187,9 +190,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -220,6 +223,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -229,15 +248,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +278,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -259,41 +292,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,46 +328,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,175 +411,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +590,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,41 +619,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +641,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -666,23 +667,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -693,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,7 +708,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,124 +717,124 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,7 +1194,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1385,93 +1388,96 @@
       <c r="B11" s="2">
         <v>52</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>99</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>199</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="14" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
         <v>600</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2">
         <v>99</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>66</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15" spans="1:7">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8">
         <v>0</v>
@@ -1479,11 +1485,8 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1512,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1533,7 +1536,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1549,7 +1552,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>16</v>

--- a/resource/excel_bar/Gift.xlsx
+++ b/resource/excel_bar/Gift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12315"/>
+    <workbookView windowWidth="31515" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="GiftItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -104,7 +104,7 @@
     <t>DailyLike</t>
   </si>
   <si>
-    <t>1:[s@Get(v1,FansLevel)*2+14]</t>
+    <t>1:[s@Get(v1,'FansLevel')*2+14]</t>
   </si>
   <si>
     <t>情书</t>
@@ -165,6 +165,30 @@
   </si>
   <si>
     <t>1:[i@30]</t>
+  </si>
+  <si>
+    <t>中秋Gift</t>
+  </si>
+  <si>
+    <t>4:[b@true|s@中秋GiftList|s@中秋GiftListP]</t>
+  </si>
+  <si>
+    <t>中秋Honor1</t>
+  </si>
+  <si>
+    <t>3:[i@150|i@240]</t>
+  </si>
+  <si>
+    <t>中秋Gift1</t>
+  </si>
+  <si>
+    <t>4:[b@false|s@中秋GiftListR|s@中秋GiftListRP]</t>
+  </si>
+  <si>
+    <t>中秋DailyLike</t>
+  </si>
+  <si>
+    <t>4:[b@true|s@中秋GiftLikeList|s@中秋GiftLikeListP]</t>
   </si>
   <si>
     <t>None</t>
@@ -190,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -216,6 +240,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -223,7 +299,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -233,37 +332,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,34 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -314,53 +371,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,37 +435,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,133 +597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,16 +623,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -623,34 +653,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -667,26 +675,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,49 +726,43 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,98 +771,104 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -869,6 +899,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1191,19 +1222,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="18.5666666666667" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="27.8583333333333" customWidth="1"/>
     <col min="6" max="6" width="21.425" customWidth="1"/>
-    <col min="7" max="7" width="25.1416666666667" customWidth="1"/>
+    <col min="7" max="7" width="47.125" customWidth="1"/>
     <col min="8" max="8" width="20.1416666666667" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="15.425" customWidth="1"/>
@@ -1283,7 +1315,7 @@
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
@@ -1487,6 +1519,62 @@
       </c>
       <c r="G19" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:7">
+      <c r="A22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1520,7 +1608,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1528,7 +1616,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1536,7 +1624,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1544,7 +1632,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1552,7 +1640,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>16</v>
